--- a/MetaLoop/trunk/MetaLoopUnityDemo/MetaLoopUnityDemoData.xlsx
+++ b/MetaLoop/trunk/MetaLoopUnityDemo/MetaLoopUnityDemoData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DryGinStudios\MetaBackend\MetaLoopUnityDemo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DryGinStudios\MetaLoop\MetaLoopUnityDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882FD0FF-94CA-483B-857C-212B10153BE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D39361-F58C-46F4-9EC0-2CF6465BF917}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" xr2:uid="{A3A5D9C4-D724-490C-9CFC-76308B1F3610}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="153">
   <si>
     <t>Name</t>
   </si>
@@ -501,6 +501,9 @@
   </si>
   <si>
     <t>MainAbility</t>
+  </si>
+  <si>
+    <t>AngryCat</t>
   </si>
 </sst>
 </file>
@@ -536,7 +539,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -553,6 +556,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -636,7 +645,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -694,6 +703,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1391,10 +1403,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,6 +1531,23 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3195,8 +3224,8 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3242,13 +3271,13 @@
         <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="E2" s="4">
         <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="G2" s="4"/>
     </row>
@@ -3263,13 +3292,13 @@
         <v>0.1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="E3" s="4">
         <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -3284,13 +3313,13 @@
         <v>0.2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="E4" s="4">
         <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -3305,11 +3334,11 @@
         <v>0.3</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="5" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="G5" s="4">
         <v>60</v>
@@ -3326,13 +3355,13 @@
         <v>0.4</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="E6" s="4">
         <v>40</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -3347,11 +3376,11 @@
         <v>0.5</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="5" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="G7" s="4">
         <v>120</v>
@@ -3368,13 +3397,13 @@
         <v>0.6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="E8" s="4">
         <v>80</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -3389,11 +3418,11 @@
         <v>0.7</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="5" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="G9" s="4">
         <v>180</v>
@@ -3410,13 +3439,13 @@
         <v>0.8</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="E10" s="4">
         <v>120</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -3431,11 +3460,11 @@
         <v>0.9</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="5" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="G11" s="4">
         <v>240</v>
@@ -3452,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="E12" s="4">
         <v>180</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -3473,11 +3502,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="5" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="G13" s="4">
         <v>300</v>
@@ -3494,13 +3523,13 @@
         <v>1.25</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="E14" s="4">
         <v>250</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="G14" s="4"/>
     </row>
@@ -3517,7 +3546,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3603,7 +3632,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3650,7 +3679,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="21" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="4"/>
@@ -3664,7 +3693,7 @@
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="21" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="4"/>
@@ -3678,7 +3707,7 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="21" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="4"/>
@@ -3692,7 +3721,7 @@
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="21" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="4"/>
@@ -3706,7 +3735,7 @@
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="21" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="4"/>
@@ -3722,7 +3751,7 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="21" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="4"/>
